--- a/excels/metadata.xlsx
+++ b/excels/metadata.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="94">
   <si>
     <t>Name</t>
   </si>
@@ -118,7 +118,13 @@
     <t>KMEANS_ftt_normalmean_K50_R3000_F300</t>
   </si>
   <si>
+    <t>KMEANS_ftt_pmeans5_K173_R30000_F1500</t>
+  </si>
+  <si>
     <t>KMEANS_ftt_pmeans5_K250_R15000_F1500</t>
+  </si>
+  <si>
+    <t>KMEANS_ftt_pmeans5_K350_R30000_F1500</t>
   </si>
   <si>
     <t>KMEANS_ftt_pmeans5_K50_R3000_F1500</t>
@@ -647,7 +653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R65"/>
+  <dimension ref="A1:R67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -714,13 +720,13 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -770,13 +776,13 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F3">
         <v>50</v>
@@ -826,13 +832,13 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -882,13 +888,13 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F5">
         <v>250</v>
@@ -938,13 +944,13 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F6">
         <v>350</v>
@@ -994,13 +1000,13 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F7">
         <v>50</v>
@@ -1050,13 +1056,13 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F8">
         <v>100</v>
@@ -1106,13 +1112,13 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F9">
         <v>250</v>
@@ -1162,13 +1168,13 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F10">
         <v>350</v>
@@ -1218,13 +1224,13 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F11">
         <v>50</v>
@@ -1274,13 +1280,13 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F12">
         <v>100</v>
@@ -1330,13 +1336,13 @@
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F13">
         <v>250</v>
@@ -1386,13 +1392,13 @@
         <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E14" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F14">
         <v>350</v>
@@ -1442,13 +1448,13 @@
         <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F15">
         <v>50</v>
@@ -1498,13 +1504,13 @@
         <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F16">
         <v>250</v>
@@ -1554,13 +1560,13 @@
         <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F17">
         <v>350</v>
@@ -1610,13 +1616,13 @@
         <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E18" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F18">
         <v>50</v>
@@ -1666,52 +1672,52 @@
         <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E19" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F19">
-        <v>250</v>
+        <v>173</v>
       </c>
       <c r="G19">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="H19">
         <v>1500</v>
       </c>
       <c r="I19">
-        <v>0.05950835189891885</v>
+        <v>0.05949319727631447</v>
       </c>
       <c r="J19">
-        <v>60</v>
+        <v>173.4104046242774</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L19">
-        <v>380</v>
+        <v>764</v>
       </c>
       <c r="M19">
-        <v>0.001600103735923767</v>
+        <v>0.001360183119773865</v>
       </c>
       <c r="N19">
-        <v>0.006534023284912109</v>
+        <v>0.001791515350341797</v>
       </c>
       <c r="O19">
-        <v>0.001598586797714233</v>
+        <v>0.001367404842376709</v>
       </c>
       <c r="P19">
-        <v>3060748</v>
+        <v>2196748</v>
       </c>
       <c r="Q19">
-        <v>3.738093397742996</v>
+        <v>3.886446023050197</v>
       </c>
       <c r="R19">
-        <v>2660.12</v>
+        <v>3749.51</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -1722,52 +1728,52 @@
         <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F20">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G20">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="H20">
         <v>1500</v>
       </c>
       <c r="I20">
-        <v>0.03317412220258162</v>
+        <v>0.05950835189891885</v>
       </c>
       <c r="J20">
         <v>60</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>224</v>
+        <v>380</v>
       </c>
       <c r="M20">
-        <v>0.0008576412200927735</v>
+        <v>0.001600103735923767</v>
       </c>
       <c r="N20">
-        <v>0.0004218387603759765</v>
+        <v>0.006534023284912109</v>
       </c>
       <c r="O20">
-        <v>0.000848156762123108</v>
+        <v>0.001598586797714233</v>
       </c>
       <c r="P20">
-        <v>612748</v>
+        <v>3060748</v>
       </c>
       <c r="Q20">
-        <v>3.365474655636406</v>
+        <v>3.738093397742996</v>
       </c>
       <c r="R20">
-        <v>84.2</v>
+        <v>2660.12</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -1778,52 +1784,52 @@
         <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D21" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F21">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="G21">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="H21">
-        <v>50</v>
+        <v>1500</v>
       </c>
       <c r="I21">
-        <v>0.08165007378868304</v>
+        <v>0.05749957978168178</v>
       </c>
       <c r="J21">
-        <v>60</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="L21">
-        <v>380</v>
+        <v>764</v>
       </c>
       <c r="M21">
-        <v>0.0006148865222930909</v>
+        <v>0.001798709511756897</v>
       </c>
       <c r="N21">
-        <v>0.001169362068176269</v>
+        <v>0.002957887649536133</v>
       </c>
       <c r="O21">
-        <v>0.0006055465698242187</v>
+        <v>0.001803594851493835</v>
       </c>
       <c r="P21">
-        <v>160747</v>
+        <v>4320750</v>
       </c>
       <c r="Q21">
-        <v>2.387888047937702</v>
+        <v>3.805769733335819</v>
       </c>
       <c r="R21">
-        <v>69.16</v>
+        <v>1916.09</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -1834,52 +1840,52 @@
         <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F22">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="G22">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="H22">
-        <v>50</v>
+        <v>1500</v>
       </c>
       <c r="I22">
-        <v>0.08142591608675881</v>
+        <v>0.03317412220258162</v>
       </c>
       <c r="J22">
-        <v>85.71428571428571</v>
+        <v>60</v>
       </c>
       <c r="K22">
         <v>2</v>
       </c>
       <c r="L22">
-        <v>764</v>
+        <v>224</v>
       </c>
       <c r="M22">
-        <v>0.0006354584693908692</v>
+        <v>0.0008576412200927735</v>
       </c>
       <c r="N22">
-        <v>0.001193680763244629</v>
+        <v>0.0004218387603759765</v>
       </c>
       <c r="O22">
-        <v>0.0006296472787857056</v>
+        <v>0.000848156762123108</v>
       </c>
       <c r="P22">
-        <v>260749</v>
+        <v>612748</v>
       </c>
       <c r="Q22">
-        <v>2.428405595269355</v>
+        <v>3.365474655636406</v>
       </c>
       <c r="R22">
-        <v>231.63</v>
+        <v>84.2</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -1890,52 +1896,52 @@
         <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E23" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F23">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G23">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="H23">
         <v>50</v>
       </c>
       <c r="I23">
-        <v>0.08719172173810544</v>
+        <v>0.08165007378868304</v>
       </c>
       <c r="J23">
         <v>60</v>
       </c>
       <c r="K23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>123</v>
+        <v>380</v>
       </c>
       <c r="M23">
-        <v>0.0003855854272842407</v>
+        <v>0.0006148865222930909</v>
       </c>
       <c r="N23">
-        <v>0.0009825229644775391</v>
+        <v>0.001169362068176269</v>
       </c>
       <c r="O23">
-        <v>0.0003804183006286621</v>
+        <v>0.0006055465698242187</v>
       </c>
       <c r="P23">
-        <v>32747</v>
+        <v>160747</v>
       </c>
       <c r="Q23">
-        <v>2.262310537726255</v>
+        <v>2.387888047937702</v>
       </c>
       <c r="R23">
-        <v>4.13</v>
+        <v>69.16</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -1946,52 +1952,52 @@
         <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E24" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F24">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="G24">
-        <v>3000</v>
+        <v>30000</v>
       </c>
       <c r="H24">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="I24">
-        <v>0.06036419328342557</v>
+        <v>0.08142591608675881</v>
       </c>
       <c r="J24">
-        <v>30</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>92</v>
+        <v>764</v>
       </c>
       <c r="M24">
-        <v>0.0006613497734069824</v>
+        <v>0.0006354584693908692</v>
       </c>
       <c r="N24">
-        <v>0.0001275444030761719</v>
+        <v>0.001193680763244629</v>
       </c>
       <c r="O24">
-        <v>0.0006510359764099121</v>
+        <v>0.0006296472787857056</v>
       </c>
       <c r="P24">
-        <v>212747</v>
+        <v>260749</v>
       </c>
       <c r="Q24">
-        <v>3.079937582100748</v>
+        <v>2.428405595269355</v>
       </c>
       <c r="R24">
-        <v>22.15</v>
+        <v>231.63</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2002,52 +2008,52 @@
         <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E25" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F25">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G25">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="H25">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="I25">
-        <v>0.0635385414440976</v>
+        <v>0.08719172173810544</v>
       </c>
       <c r="J25">
         <v>60</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L25">
-        <v>380</v>
+        <v>123</v>
       </c>
       <c r="M25">
-        <v>0.0008122097253799439</v>
+        <v>0.0003855854272842407</v>
       </c>
       <c r="N25">
-        <v>0.0003874969482421875</v>
+        <v>0.0009825229644775391</v>
       </c>
       <c r="O25">
-        <v>0.0008006907463073729</v>
+        <v>0.0003804183006286621</v>
       </c>
       <c r="P25">
-        <v>560747</v>
+        <v>32747</v>
       </c>
       <c r="Q25">
-        <v>3.378287035567405</v>
+        <v>2.262310537726255</v>
       </c>
       <c r="R25">
-        <v>315.04</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2058,52 +2064,52 @@
         <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D26" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E26" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F26">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="G26">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="H26">
         <v>250</v>
       </c>
       <c r="I26">
-        <v>0.06316511641150116</v>
+        <v>0.06036419328342557</v>
       </c>
       <c r="J26">
-        <v>85.71428571428571</v>
+        <v>30</v>
       </c>
       <c r="K26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>764</v>
+        <v>92</v>
       </c>
       <c r="M26">
-        <v>0.0008862920999526977</v>
+        <v>0.0006613497734069824</v>
       </c>
       <c r="N26">
-        <v>0.0005409288406372071</v>
+        <v>0.0001275444030761719</v>
       </c>
       <c r="O26">
-        <v>0.0008832240819931029</v>
+        <v>0.0006510359764099121</v>
       </c>
       <c r="P26">
-        <v>820749</v>
+        <v>212747</v>
       </c>
       <c r="Q26">
-        <v>3.517527238319405</v>
+        <v>3.079937582100748</v>
       </c>
       <c r="R26">
-        <v>862.78</v>
+        <v>22.15</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -2114,52 +2120,52 @@
         <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D27" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E27" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F27">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G27">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="H27">
         <v>250</v>
       </c>
       <c r="I27">
-        <v>0.06437150049920187</v>
+        <v>0.0635385414440976</v>
       </c>
       <c r="J27">
         <v>60</v>
       </c>
       <c r="K27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L27">
-        <v>157</v>
+        <v>380</v>
       </c>
       <c r="M27">
-        <v>0.0006253697872161865</v>
+        <v>0.0008122097253799439</v>
       </c>
       <c r="N27">
-        <v>0.0001510429382324219</v>
+        <v>0.0003874969482421875</v>
       </c>
       <c r="O27">
-        <v>0.0006106625556945801</v>
+        <v>0.0008006907463073729</v>
       </c>
       <c r="P27">
-        <v>112747</v>
+        <v>560747</v>
       </c>
       <c r="Q27">
-        <v>3.172959512732064</v>
+        <v>3.378287035567405</v>
       </c>
       <c r="R27">
-        <v>14.61</v>
+        <v>315.04</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -2170,52 +2176,52 @@
         <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D28" t="s">
         <v>89</v>
       </c>
       <c r="E28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F28">
+        <v>350</v>
+      </c>
+      <c r="G28">
+        <v>30000</v>
+      </c>
+      <c r="H28">
         <v>250</v>
       </c>
-      <c r="G28">
-        <v>15000</v>
-      </c>
-      <c r="H28">
-        <v>100</v>
-      </c>
       <c r="I28">
-        <v>0.07766439215927345</v>
+        <v>0.06316511641150116</v>
       </c>
       <c r="J28">
-        <v>60</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L28">
-        <v>380</v>
+        <v>764</v>
       </c>
       <c r="M28">
-        <v>0.0007190760374069213</v>
+        <v>0.0008862920999526977</v>
       </c>
       <c r="N28">
-        <v>0.001235795021057129</v>
+        <v>0.0005409288406372071</v>
       </c>
       <c r="O28">
-        <v>0.000676177954673767</v>
+        <v>0.0008832240819931029</v>
       </c>
       <c r="P28">
-        <v>260747</v>
+        <v>820749</v>
       </c>
       <c r="Q28">
-        <v>2.480890379955845</v>
+        <v>3.517527238319405</v>
       </c>
       <c r="R28">
-        <v>119.27</v>
+        <v>862.78</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2226,52 +2232,52 @@
         <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D29" t="s">
         <v>89</v>
       </c>
       <c r="E29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F29">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="G29">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="H29">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="I29">
-        <v>0.07406544282606178</v>
+        <v>0.06437150049920187</v>
       </c>
       <c r="J29">
-        <v>85.71428571428571</v>
+        <v>60</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L29">
-        <v>765</v>
+        <v>157</v>
       </c>
       <c r="M29">
-        <v>0.0006891660690307617</v>
+        <v>0.0006253697872161865</v>
       </c>
       <c r="N29">
-        <v>0.001536064147949219</v>
+        <v>0.0001510429382324219</v>
       </c>
       <c r="O29">
-        <v>0.0007155507802963257</v>
+        <v>0.0006106625556945801</v>
       </c>
       <c r="P29">
-        <v>400749</v>
+        <v>112747</v>
       </c>
       <c r="Q29">
-        <v>2.500698808909184</v>
+        <v>3.172959512732064</v>
       </c>
       <c r="R29">
-        <v>365.36</v>
+        <v>14.61</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -2282,25 +2288,25 @@
         <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D30" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E30" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F30">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G30">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="H30">
         <v>100</v>
       </c>
       <c r="I30">
-        <v>0.07706122821652638</v>
+        <v>0.07766439215927345</v>
       </c>
       <c r="J30">
         <v>60</v>
@@ -2309,25 +2315,25 @@
         <v>1</v>
       </c>
       <c r="L30">
-        <v>169</v>
+        <v>380</v>
       </c>
       <c r="M30">
-        <v>0.0003980395793914795</v>
+        <v>0.0007190760374069213</v>
       </c>
       <c r="N30">
-        <v>0.001148891448974609</v>
+        <v>0.001235795021057129</v>
       </c>
       <c r="O30">
-        <v>0.0003971146583557129</v>
+        <v>0.000676177954673767</v>
       </c>
       <c r="P30">
-        <v>52747</v>
+        <v>260747</v>
       </c>
       <c r="Q30">
-        <v>2.324524858117909</v>
+        <v>2.480890379955845</v>
       </c>
       <c r="R30">
-        <v>5.86</v>
+        <v>119.27</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -2338,52 +2344,52 @@
         <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E31" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F31">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="G31">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="H31">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="I31">
-        <v>0.06178551603036364</v>
+        <v>0.07406544282606178</v>
       </c>
       <c r="J31">
-        <v>60</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="K31">
         <v>1</v>
       </c>
       <c r="L31">
-        <v>380</v>
+        <v>765</v>
       </c>
       <c r="M31">
-        <v>0.0008712377548217773</v>
+        <v>0.0006891660690307617</v>
       </c>
       <c r="N31">
-        <v>0.002454414367675781</v>
+        <v>0.001536064147949219</v>
       </c>
       <c r="O31">
-        <v>0.0008473190069198609</v>
+        <v>0.0007155507802963257</v>
       </c>
       <c r="P31">
-        <v>1060748</v>
+        <v>400749</v>
       </c>
       <c r="Q31">
-        <v>3.374826704499453</v>
+        <v>2.500698808909184</v>
       </c>
       <c r="R31">
-        <v>605.47</v>
+        <v>365.36</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -2394,52 +2400,52 @@
         <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D32" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E32" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F32">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="G32">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="H32">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="I32">
-        <v>0.06219069138068455</v>
+        <v>0.07706122821652638</v>
       </c>
       <c r="J32">
-        <v>85.71428571428571</v>
+        <v>60</v>
       </c>
       <c r="K32">
         <v>1</v>
       </c>
       <c r="L32">
-        <v>764</v>
+        <v>169</v>
       </c>
       <c r="M32">
-        <v>0.001034874796867371</v>
+        <v>0.0003980395793914795</v>
       </c>
       <c r="N32">
-        <v>0.003201556205749512</v>
+        <v>0.001148891448974609</v>
       </c>
       <c r="O32">
-        <v>0.001033639025688171</v>
+        <v>0.0003971146583557129</v>
       </c>
       <c r="P32">
-        <v>1520750</v>
+        <v>52747</v>
       </c>
       <c r="Q32">
-        <v>3.502346406694841</v>
+        <v>2.324524858117909</v>
       </c>
       <c r="R32">
-        <v>1807.39</v>
+        <v>5.86</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -2450,52 +2456,52 @@
         <v>48</v>
       </c>
       <c r="C33" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D33" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E33" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F33">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G33">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="H33">
         <v>500</v>
       </c>
       <c r="I33">
-        <v>0.060423435523017</v>
+        <v>0.06178551603036364</v>
       </c>
       <c r="J33">
-        <v>55.55555555555556</v>
+        <v>60</v>
       </c>
       <c r="K33">
         <v>1</v>
       </c>
       <c r="L33">
-        <v>171</v>
+        <v>380</v>
       </c>
       <c r="M33">
-        <v>0.0007008829116821289</v>
+        <v>0.0008712377548217773</v>
       </c>
       <c r="N33">
-        <v>0.001598076820373535</v>
+        <v>0.002454414367675781</v>
       </c>
       <c r="O33">
-        <v>0.0006628569364547731</v>
+        <v>0.0008473190069198609</v>
       </c>
       <c r="P33">
-        <v>228748</v>
+        <v>1060748</v>
       </c>
       <c r="Q33">
-        <v>3.10125581254008</v>
+        <v>3.374826704499453</v>
       </c>
       <c r="R33">
-        <v>30.62</v>
+        <v>605.47</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -2506,52 +2512,52 @@
         <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D34" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E34" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F34">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="G34">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="H34">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I34">
-        <v>0.01612761548503986</v>
+        <v>0.06219069138068455</v>
       </c>
       <c r="J34">
-        <v>60.24096385542169</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="K34">
         <v>1</v>
       </c>
       <c r="L34">
-        <v>671</v>
+        <v>764</v>
       </c>
       <c r="M34">
-        <v>0.001300104379653931</v>
+        <v>0.001034874796867371</v>
       </c>
       <c r="N34">
-        <v>0.002298221588134766</v>
+        <v>0.003201556205749512</v>
       </c>
       <c r="O34">
-        <v>0.001292737889289856</v>
+        <v>0.001033639025688171</v>
       </c>
       <c r="P34">
-        <v>662903</v>
+        <v>1520750</v>
       </c>
       <c r="Q34">
-        <v>2.126153175579631</v>
+        <v>3.502346406694841</v>
       </c>
       <c r="R34">
-        <v>9.050000000000001</v>
+        <v>1807.39</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -2562,52 +2568,52 @@
         <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D35" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E35" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F35">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="G35">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="H35">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I35">
-        <v>0.04126519005923249</v>
+        <v>0.060423435523017</v>
       </c>
       <c r="J35">
-        <v>89.02077151335311</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="K35">
         <v>1</v>
       </c>
       <c r="L35">
-        <v>891</v>
+        <v>171</v>
       </c>
       <c r="M35">
-        <v>0.00143929660320282</v>
+        <v>0.0007008829116821289</v>
       </c>
       <c r="N35">
-        <v>0.002539329528808594</v>
+        <v>0.001598076820373535</v>
       </c>
       <c r="O35">
-        <v>0.001393077754974365</v>
+        <v>0.0006628569364547731</v>
       </c>
       <c r="P35">
-        <v>963706</v>
+        <v>228748</v>
       </c>
       <c r="Q35">
-        <v>2.338134725984944</v>
+        <v>3.10125581254008</v>
       </c>
       <c r="R35">
-        <v>17.36</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -2618,52 +2624,52 @@
         <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D36" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E36" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F36">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G36">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="H36">
         <v>300</v>
       </c>
       <c r="I36">
-        <v>0.02370533302067541</v>
+        <v>0.01612761548503986</v>
       </c>
       <c r="J36">
-        <v>60</v>
+        <v>60.24096385542169</v>
       </c>
       <c r="K36">
         <v>1</v>
       </c>
       <c r="L36">
-        <v>299</v>
+        <v>671</v>
       </c>
       <c r="M36">
-        <v>0.001085637331008911</v>
+        <v>0.001300104379653931</v>
       </c>
       <c r="N36">
-        <v>0.001173062324523926</v>
+        <v>0.002298221588134766</v>
       </c>
       <c r="O36">
-        <v>0.0011173495054245</v>
+        <v>0.001292737889289856</v>
       </c>
       <c r="P36">
-        <v>133302</v>
+        <v>662903</v>
       </c>
       <c r="Q36">
-        <v>2.473199517239429</v>
+        <v>2.126153175579631</v>
       </c>
       <c r="R36">
-        <v>0.95</v>
+        <v>9.050000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -2674,52 +2680,52 @@
         <v>52</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D37" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E37" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F37">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="G37">
-        <v>3000</v>
+        <v>30000</v>
       </c>
       <c r="H37">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="I37">
-        <v>-0.04220857641035521</v>
+        <v>0.04126519005923249</v>
       </c>
       <c r="J37">
-        <v>60</v>
+        <v>89.02077151335311</v>
       </c>
       <c r="K37">
         <v>1</v>
       </c>
       <c r="L37">
-        <v>443</v>
+        <v>891</v>
       </c>
       <c r="M37">
-        <v>0.001443910717964172</v>
+        <v>0.00143929660320282</v>
       </c>
       <c r="N37">
-        <v>0.0004537487030029297</v>
+        <v>0.002539329528808594</v>
       </c>
       <c r="O37">
-        <v>0.001457683897018433</v>
+        <v>0.001393077754974365</v>
       </c>
       <c r="P37">
-        <v>613302</v>
+        <v>963706</v>
       </c>
       <c r="Q37">
-        <v>2.144804344878156</v>
+        <v>2.338134725984944</v>
       </c>
       <c r="R37">
-        <v>1.64</v>
+        <v>17.36</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -2730,52 +2736,52 @@
         <v>53</v>
       </c>
       <c r="C38" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D38" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E38" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F38">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G38">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="H38">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="I38">
-        <v>0.06360346720372757</v>
+        <v>0.02370533302067541</v>
       </c>
       <c r="J38">
-        <v>60.48387096774194</v>
+        <v>60</v>
       </c>
       <c r="K38">
         <v>1</v>
       </c>
       <c r="L38">
-        <v>380</v>
+        <v>299</v>
       </c>
       <c r="M38">
-        <v>0.001098393082618713</v>
+        <v>0.001085637331008911</v>
       </c>
       <c r="N38">
-        <v>0.001343631744384766</v>
+        <v>0.001173062324523926</v>
       </c>
       <c r="O38">
-        <v>0.001088037824630737</v>
+        <v>0.0011173495054245</v>
       </c>
       <c r="P38">
-        <v>162902</v>
+        <v>133302</v>
       </c>
       <c r="Q38">
-        <v>2.394936526706407</v>
+        <v>2.473199517239429</v>
       </c>
       <c r="R38">
-        <v>6.14</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -2786,52 +2792,52 @@
         <v>54</v>
       </c>
       <c r="C39" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D39" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E39" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F39">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="G39">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="H39">
-        <v>50</v>
+        <v>1500</v>
       </c>
       <c r="I39">
-        <v>0.07096225176791399</v>
+        <v>-0.04220857641035521</v>
       </c>
       <c r="J39">
-        <v>86.95652173913044</v>
+        <v>60</v>
       </c>
       <c r="K39">
         <v>1</v>
       </c>
       <c r="L39">
-        <v>765</v>
+        <v>443</v>
       </c>
       <c r="M39">
-        <v>0.001090614557266235</v>
+        <v>0.001443910717964172</v>
       </c>
       <c r="N39">
-        <v>0.001290125846862793</v>
+        <v>0.0004537487030029297</v>
       </c>
       <c r="O39">
-        <v>0.001119990730285644</v>
+        <v>0.001457683897018433</v>
       </c>
       <c r="P39">
-        <v>263705</v>
+        <v>613302</v>
       </c>
       <c r="Q39">
-        <v>2.474145809871713</v>
+        <v>2.144804344878156</v>
       </c>
       <c r="R39">
-        <v>11.63</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -2842,52 +2848,52 @@
         <v>55</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D40" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E40" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F40">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G40">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="H40">
         <v>50</v>
       </c>
       <c r="I40">
-        <v>0.09581037365121671</v>
+        <v>0.06360346720372757</v>
       </c>
       <c r="J40">
-        <v>60</v>
+        <v>60.48387096774194</v>
       </c>
       <c r="K40">
         <v>1</v>
       </c>
       <c r="L40">
-        <v>198</v>
+        <v>380</v>
       </c>
       <c r="M40">
-        <v>0.000986794114112854</v>
+        <v>0.001098393082618713</v>
       </c>
       <c r="N40">
-        <v>0.0009635734558105469</v>
+        <v>0.001343631744384766</v>
       </c>
       <c r="O40">
-        <v>0.0009689733266830444</v>
+        <v>0.001088037824630737</v>
       </c>
       <c r="P40">
-        <v>33301</v>
+        <v>162902</v>
       </c>
       <c r="Q40">
-        <v>2.12428733087146</v>
+        <v>2.394936526706407</v>
       </c>
       <c r="R40">
-        <v>0.64</v>
+        <v>6.14</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -2898,52 +2904,52 @@
         <v>56</v>
       </c>
       <c r="C41" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D41" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E41" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F41">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="G41">
-        <v>3000</v>
+        <v>30000</v>
       </c>
       <c r="H41">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="I41">
-        <v>-0.0455063497164551</v>
+        <v>0.07096225176791399</v>
       </c>
       <c r="J41">
-        <v>30</v>
+        <v>86.95652173913044</v>
       </c>
       <c r="K41">
         <v>1</v>
       </c>
       <c r="L41">
-        <v>278</v>
+        <v>765</v>
       </c>
       <c r="M41">
-        <v>0.0006567831039428711</v>
+        <v>0.001090614557266235</v>
       </c>
       <c r="N41">
-        <v>0.0001741218566894531</v>
+        <v>0.001290125846862793</v>
       </c>
       <c r="O41">
-        <v>0.0007016418457031251</v>
+        <v>0.001119990730285644</v>
       </c>
       <c r="P41">
-        <v>213697</v>
+        <v>263705</v>
       </c>
       <c r="Q41">
-        <v>2.046591359151229</v>
+        <v>2.474145809871713</v>
       </c>
       <c r="R41">
-        <v>1.8</v>
+        <v>11.63</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -2954,52 +2960,52 @@
         <v>57</v>
       </c>
       <c r="C42" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D42" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E42" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F42">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G42">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="H42">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="I42">
-        <v>-0.09666390397872644</v>
+        <v>0.09581037365121671</v>
       </c>
       <c r="J42">
-        <v>60.72874493927125</v>
+        <v>60</v>
       </c>
       <c r="K42">
         <v>1</v>
       </c>
       <c r="L42">
-        <v>2735</v>
+        <v>198</v>
       </c>
       <c r="M42">
-        <v>0.0007166047096252441</v>
+        <v>0.000986794114112854</v>
       </c>
       <c r="N42">
-        <v>0.0001936578750610352</v>
+        <v>0.0009635734558105469</v>
       </c>
       <c r="O42">
-        <v>0.000797424840927124</v>
+        <v>0.0009689733266830444</v>
       </c>
       <c r="P42">
-        <v>562896</v>
+        <v>33301</v>
       </c>
       <c r="Q42">
-        <v>2.052158377993172</v>
+        <v>2.12428733087146</v>
       </c>
       <c r="R42">
-        <v>3.39</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3010,52 +3016,52 @@
         <v>58</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D43" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E43" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F43">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="G43">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="H43">
         <v>250</v>
       </c>
       <c r="I43">
-        <v>-0.06894850109615998</v>
+        <v>-0.0455063497164551</v>
       </c>
       <c r="J43">
-        <v>85.95988538681948</v>
+        <v>30</v>
       </c>
       <c r="K43">
         <v>1</v>
       </c>
       <c r="L43">
-        <v>1766</v>
+        <v>278</v>
       </c>
       <c r="M43">
-        <v>0.000830830454826355</v>
+        <v>0.0006567831039428711</v>
       </c>
       <c r="N43">
-        <v>0.0003264856338500977</v>
+        <v>0.0001741218566894531</v>
       </c>
       <c r="O43">
-        <v>0.0008696755886077881</v>
+        <v>0.0007016418457031251</v>
       </c>
       <c r="P43">
-        <v>823700</v>
+        <v>213697</v>
       </c>
       <c r="Q43">
-        <v>1.838282079523226</v>
+        <v>2.046591359151229</v>
       </c>
       <c r="R43">
-        <v>9.630000000000001</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3066,52 +3072,52 @@
         <v>59</v>
       </c>
       <c r="C44" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D44" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E44" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F44">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G44">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="H44">
         <v>250</v>
       </c>
       <c r="I44">
-        <v>-0.02926957340580952</v>
+        <v>-0.09666390397872644</v>
       </c>
       <c r="J44">
-        <v>60</v>
+        <v>60.72874493927125</v>
       </c>
       <c r="K44">
         <v>1</v>
       </c>
       <c r="L44">
-        <v>336</v>
+        <v>2735</v>
       </c>
       <c r="M44">
-        <v>0.0006359102725982666</v>
+        <v>0.0007166047096252441</v>
       </c>
       <c r="N44">
-        <v>0.0001545810699462891</v>
+        <v>0.0001936578750610352</v>
       </c>
       <c r="O44">
-        <v>0.0006143015146255492</v>
+        <v>0.000797424840927124</v>
       </c>
       <c r="P44">
-        <v>113296</v>
+        <v>562896</v>
       </c>
       <c r="Q44">
-        <v>2.435061810551683</v>
+        <v>2.052158377993172</v>
       </c>
       <c r="R44">
-        <v>0.87</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3122,52 +3128,52 @@
         <v>60</v>
       </c>
       <c r="C45" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D45" t="s">
         <v>89</v>
       </c>
       <c r="E45" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F45">
+        <v>350</v>
+      </c>
+      <c r="G45">
+        <v>30000</v>
+      </c>
+      <c r="H45">
         <v>250</v>
       </c>
-      <c r="G45">
-        <v>15000</v>
-      </c>
-      <c r="H45">
-        <v>100</v>
-      </c>
       <c r="I45">
-        <v>0.05745620882879785</v>
+        <v>-0.06894850109615998</v>
       </c>
       <c r="J45">
-        <v>60</v>
+        <v>85.95988538681948</v>
       </c>
       <c r="K45">
         <v>1</v>
       </c>
       <c r="L45">
-        <v>523</v>
+        <v>1766</v>
       </c>
       <c r="M45">
-        <v>0.001164774417877197</v>
+        <v>0.000830830454826355</v>
       </c>
       <c r="N45">
-        <v>0.001374278068542481</v>
+        <v>0.0003264856338500977</v>
       </c>
       <c r="O45">
-        <v>0.001126547050476074</v>
+        <v>0.0008696755886077881</v>
       </c>
       <c r="P45">
-        <v>262901</v>
+        <v>823700</v>
       </c>
       <c r="Q45">
-        <v>2.128648836307439</v>
+        <v>1.838282079523226</v>
       </c>
       <c r="R45">
-        <v>5.52</v>
+        <v>9.630000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3178,52 +3184,52 @@
         <v>61</v>
       </c>
       <c r="C46" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D46" t="s">
         <v>89</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F46">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="G46">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="H46">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="I46">
-        <v>0.05958404947864496</v>
+        <v>-0.02926957340580952</v>
       </c>
       <c r="J46">
-        <v>87.20930232558139</v>
+        <v>60</v>
       </c>
       <c r="K46">
         <v>1</v>
       </c>
       <c r="L46">
-        <v>764</v>
+        <v>336</v>
       </c>
       <c r="M46">
-        <v>0.001208927154541016</v>
+        <v>0.0006359102725982666</v>
       </c>
       <c r="N46">
-        <v>0.001666202545166016</v>
+        <v>0.0001545810699462891</v>
       </c>
       <c r="O46">
-        <v>0.00126603639125824</v>
+        <v>0.0006143015146255492</v>
       </c>
       <c r="P46">
-        <v>403705</v>
+        <v>113296</v>
       </c>
       <c r="Q46">
-        <v>2.448106219466438</v>
+        <v>2.435061810551683</v>
       </c>
       <c r="R46">
-        <v>14.36</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -3234,25 +3240,25 @@
         <v>62</v>
       </c>
       <c r="C47" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D47" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F47">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G47">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="H47">
         <v>100</v>
       </c>
       <c r="I47">
-        <v>0.07044940348289072</v>
+        <v>0.05745620882879785</v>
       </c>
       <c r="J47">
         <v>60</v>
@@ -3261,25 +3267,25 @@
         <v>1</v>
       </c>
       <c r="L47">
-        <v>231</v>
+        <v>523</v>
       </c>
       <c r="M47">
-        <v>0.0008939682245254517</v>
+        <v>0.001164774417877197</v>
       </c>
       <c r="N47">
-        <v>0.0009568881988525391</v>
+        <v>0.001374278068542481</v>
       </c>
       <c r="O47">
-        <v>0.0009435564994812011</v>
+        <v>0.001126547050476074</v>
       </c>
       <c r="P47">
-        <v>53301</v>
+        <v>262901</v>
       </c>
       <c r="Q47">
-        <v>2.140937600459048</v>
+        <v>2.128648836307439</v>
       </c>
       <c r="R47">
-        <v>0.76</v>
+        <v>5.52</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -3290,52 +3296,52 @@
         <v>63</v>
       </c>
       <c r="C48" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D48" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E48" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F48">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="G48">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="H48">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="I48">
-        <v>-0.03499556439274465</v>
+        <v>0.05958404947864496</v>
       </c>
       <c r="J48">
-        <v>61.22448979591837</v>
+        <v>87.20930232558139</v>
       </c>
       <c r="K48">
         <v>1</v>
       </c>
       <c r="L48">
-        <v>1521</v>
+        <v>764</v>
       </c>
       <c r="M48">
-        <v>0.001429545164108276</v>
+        <v>0.001208927154541016</v>
       </c>
       <c r="N48">
-        <v>0.003026013374328613</v>
+        <v>0.001666202545166016</v>
       </c>
       <c r="O48">
-        <v>0.001435918354988098</v>
+        <v>0.00126603639125824</v>
       </c>
       <c r="P48">
-        <v>1062903</v>
+        <v>403705</v>
       </c>
       <c r="Q48">
-        <v>1.673987941753152</v>
+        <v>2.448106219466438</v>
       </c>
       <c r="R48">
-        <v>11.84</v>
+        <v>14.36</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -3346,52 +3352,52 @@
         <v>64</v>
       </c>
       <c r="C49" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D49" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E49" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F49">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="G49">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="H49">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="I49">
-        <v>-0.02982210921692531</v>
+        <v>0.07044940348289072</v>
       </c>
       <c r="J49">
-        <v>88.75739644970415</v>
+        <v>60</v>
       </c>
       <c r="K49">
         <v>1</v>
       </c>
       <c r="L49">
-        <v>2054</v>
+        <v>231</v>
       </c>
       <c r="M49">
-        <v>0.001585516571998596</v>
+        <v>0.0008939682245254517</v>
       </c>
       <c r="N49">
-        <v>0.003304104804992676</v>
+        <v>0.0009568881988525391</v>
       </c>
       <c r="O49">
-        <v>0.001580426669120789</v>
+        <v>0.0009435564994812011</v>
       </c>
       <c r="P49">
-        <v>1523706</v>
+        <v>53301</v>
       </c>
       <c r="Q49">
-        <v>1.891024442751413</v>
+        <v>2.140937600459048</v>
       </c>
       <c r="R49">
-        <v>23.76</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -3402,52 +3408,52 @@
         <v>65</v>
       </c>
       <c r="C50" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D50" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E50" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F50">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G50">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="H50">
         <v>500</v>
       </c>
       <c r="I50">
-        <v>-0.02435843988178963</v>
+        <v>-0.03499556439274465</v>
       </c>
       <c r="J50">
-        <v>60</v>
+        <v>61.22448979591837</v>
       </c>
       <c r="K50">
         <v>1</v>
       </c>
       <c r="L50">
-        <v>446</v>
+        <v>1521</v>
       </c>
       <c r="M50">
-        <v>0.001134389400482178</v>
+        <v>0.001429545164108276</v>
       </c>
       <c r="N50">
-        <v>0.001256914138793945</v>
+        <v>0.003026013374328613</v>
       </c>
       <c r="O50">
-        <v>0.001104317283630371</v>
+        <v>0.001435918354988098</v>
       </c>
       <c r="P50">
-        <v>213302</v>
+        <v>1062903</v>
       </c>
       <c r="Q50">
-        <v>2.077759097936107</v>
+        <v>1.673987941753152</v>
       </c>
       <c r="R50">
-        <v>1.04</v>
+        <v>11.84</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -3458,52 +3464,52 @@
         <v>66</v>
       </c>
       <c r="C51" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D51" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E51" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F51">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="G51">
-        <v>3000</v>
+        <v>30000</v>
       </c>
       <c r="H51">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="I51">
-        <v>0.02716257265639123</v>
+        <v>-0.02982210921692531</v>
       </c>
       <c r="J51">
-        <v>60</v>
+        <v>88.75739644970415</v>
       </c>
       <c r="K51">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L51">
-        <v>499</v>
+        <v>2054</v>
       </c>
       <c r="M51">
-        <v>0.001443910717964172</v>
+        <v>0.001585516571998596</v>
       </c>
       <c r="N51">
-        <v>0.0004319000244140625</v>
+        <v>0.003304104804992676</v>
       </c>
       <c r="O51">
-        <v>0.001457683897018433</v>
+        <v>0.001580426669120789</v>
       </c>
       <c r="P51">
-        <v>596607</v>
+        <v>1523706</v>
       </c>
       <c r="Q51">
-        <v>2.73672574951038</v>
+        <v>1.891024442751413</v>
       </c>
       <c r="R51">
-        <v>23.65</v>
+        <v>23.76</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -3517,43 +3523,49 @@
         <v>86</v>
       </c>
       <c r="D52" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E52" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F52">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G52">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="H52">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="I52">
-        <v>0.04051506905859906</v>
+        <v>-0.02435843988178963</v>
       </c>
       <c r="J52">
         <v>60</v>
       </c>
       <c r="K52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L52">
-        <v>1224</v>
+        <v>446</v>
+      </c>
+      <c r="M52">
+        <v>0.001134389400482178</v>
       </c>
       <c r="N52">
-        <v>0.006072850227355957</v>
+        <v>0.001256914138793945</v>
+      </c>
+      <c r="O52">
+        <v>0.001104317283630371</v>
       </c>
       <c r="P52">
-        <v>3160939</v>
+        <v>213302</v>
       </c>
       <c r="Q52">
-        <v>2.532786317419314</v>
+        <v>2.077759097936107</v>
       </c>
       <c r="R52">
-        <v>386.39</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -3564,13 +3576,13 @@
         <v>68</v>
       </c>
       <c r="C53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D53" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E53" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F53">
         <v>50</v>
@@ -3579,10 +3591,10 @@
         <v>3000</v>
       </c>
       <c r="H53">
-        <v>300</v>
+        <v>1500</v>
       </c>
       <c r="I53">
-        <v>0.05815224784505682</v>
+        <v>0.02716257265639123</v>
       </c>
       <c r="J53">
         <v>60</v>
@@ -3591,19 +3603,25 @@
         <v>7</v>
       </c>
       <c r="L53">
-        <v>268</v>
+        <v>499</v>
+      </c>
+      <c r="M53">
+        <v>0.001443910717964172</v>
       </c>
       <c r="N53">
-        <v>0.002073984146118164</v>
+        <v>0.0004319000244140625</v>
+      </c>
+      <c r="O53">
+        <v>0.001457683897018433</v>
       </c>
       <c r="P53">
-        <v>619419</v>
+        <v>596607</v>
       </c>
       <c r="Q53">
-        <v>2.408628568171702</v>
+        <v>2.73672574951038</v>
       </c>
       <c r="R53">
-        <v>7.93</v>
+        <v>23.65</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -3614,13 +3632,13 @@
         <v>69</v>
       </c>
       <c r="C54" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E54" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F54">
         <v>250</v>
@@ -3629,10 +3647,10 @@
         <v>15000</v>
       </c>
       <c r="H54">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="I54">
-        <v>0.0422181560612339</v>
+        <v>0.04051506905859906</v>
       </c>
       <c r="J54">
         <v>60</v>
@@ -3641,19 +3659,19 @@
         <v>5</v>
       </c>
       <c r="L54">
-        <v>1287</v>
+        <v>1224</v>
       </c>
       <c r="N54">
-        <v>0.005509800910949707</v>
+        <v>0.006072850227355957</v>
       </c>
       <c r="P54">
-        <v>3038815</v>
+        <v>3160939</v>
       </c>
       <c r="Q54">
-        <v>2.212364705428643</v>
+        <v>2.532786317419314</v>
       </c>
       <c r="R54">
-        <v>365.77</v>
+        <v>386.39</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -3664,13 +3682,13 @@
         <v>70</v>
       </c>
       <c r="C55" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D55" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E55" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F55">
         <v>50</v>
@@ -3679,10 +3697,10 @@
         <v>3000</v>
       </c>
       <c r="H55">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="I55">
-        <v>0.08626005078832534</v>
+        <v>0.05815224784505682</v>
       </c>
       <c r="J55">
         <v>60</v>
@@ -3691,19 +3709,19 @@
         <v>7</v>
       </c>
       <c r="L55">
-        <v>212</v>
+        <v>268</v>
       </c>
       <c r="N55">
-        <v>0.001564860343933105</v>
+        <v>0.002073984146118164</v>
       </c>
       <c r="P55">
-        <v>593283</v>
+        <v>619419</v>
       </c>
       <c r="Q55">
-        <v>2.121154350760621</v>
+        <v>2.408628568171702</v>
       </c>
       <c r="R55">
-        <v>5.02</v>
+        <v>7.93</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -3714,52 +3732,46 @@
         <v>71</v>
       </c>
       <c r="C56" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D56" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E56" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F56">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="G56">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="H56">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="I56">
-        <v>0.02879523026238883</v>
+        <v>0.0422181560612339</v>
       </c>
       <c r="J56">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L56">
-        <v>300</v>
-      </c>
-      <c r="M56">
-        <v>8.220000000000001</v>
+        <v>1287</v>
       </c>
       <c r="N56">
-        <v>0.0001654863357543945</v>
-      </c>
-      <c r="O56">
-        <v>8.220000000000001</v>
+        <v>0.005509800910949707</v>
       </c>
       <c r="P56">
-        <v>595044</v>
+        <v>3038815</v>
       </c>
       <c r="Q56">
-        <v>2.831420885755815</v>
+        <v>2.212364705428643</v>
       </c>
       <c r="R56">
-        <v>8.220000000000001</v>
+        <v>365.77</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -3770,52 +3782,46 @@
         <v>72</v>
       </c>
       <c r="C57" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D57" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E57" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F57">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="G57">
-        <v>15000</v>
+        <v>3000</v>
       </c>
       <c r="H57">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="I57">
-        <v>-0.007041922222635746</v>
+        <v>0.08626005078832534</v>
       </c>
       <c r="J57">
         <v>60</v>
       </c>
       <c r="K57">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L57">
-        <v>2278</v>
-      </c>
-      <c r="M57">
-        <v>318.94</v>
+        <v>212</v>
       </c>
       <c r="N57">
-        <v>0.001264958381652832</v>
-      </c>
-      <c r="O57">
-        <v>318.94</v>
+        <v>0.001564860343933105</v>
       </c>
       <c r="P57">
-        <v>3014728</v>
+        <v>593283</v>
       </c>
       <c r="Q57">
-        <v>2.708613672838375</v>
+        <v>2.121154350760621</v>
       </c>
       <c r="R57">
-        <v>318.94</v>
+        <v>5.02</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -3826,52 +3832,52 @@
         <v>73</v>
       </c>
       <c r="C58" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D58" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E58" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F58">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="G58">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="H58">
         <v>250</v>
       </c>
       <c r="I58">
-        <v>0.004851195785810773</v>
+        <v>0.02879523026238883</v>
       </c>
       <c r="J58">
-        <v>85.71428571428571</v>
+        <v>30</v>
       </c>
       <c r="K58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L58">
-        <v>4372</v>
+        <v>300</v>
       </c>
       <c r="M58">
-        <v>2540</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="N58">
-        <v>0.002718129158020019</v>
+        <v>0.0001654863357543945</v>
       </c>
       <c r="O58">
-        <v>2540</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="P58">
-        <v>6110417</v>
+        <v>595044</v>
       </c>
       <c r="Q58">
-        <v>2.335602826496675</v>
+        <v>2.831420885755815</v>
       </c>
       <c r="R58">
-        <v>2540</v>
+        <v>8.220000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -3882,52 +3888,52 @@
         <v>74</v>
       </c>
       <c r="C59" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D59" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E59" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F59">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G59">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="H59">
         <v>250</v>
       </c>
       <c r="I59">
-        <v>0.03557633533726015</v>
+        <v>-0.007041922222635746</v>
       </c>
       <c r="J59">
         <v>60</v>
       </c>
       <c r="K59">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L59">
-        <v>598</v>
+        <v>2278</v>
       </c>
       <c r="M59">
-        <v>4.86</v>
+        <v>318.94</v>
       </c>
       <c r="N59">
-        <v>0.0003328371047973633</v>
+        <v>0.001264958381652832</v>
       </c>
       <c r="O59">
-        <v>4.86</v>
+        <v>318.94</v>
       </c>
       <c r="P59">
-        <v>595044</v>
+        <v>3014728</v>
       </c>
       <c r="Q59">
-        <v>2.603330361105896</v>
+        <v>2.708613672838375</v>
       </c>
       <c r="R59">
-        <v>4.86</v>
+        <v>318.94</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -3938,46 +3944,52 @@
         <v>75</v>
       </c>
       <c r="C60" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D60" t="s">
         <v>89</v>
       </c>
       <c r="E60" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F60">
+        <v>350</v>
+      </c>
+      <c r="G60">
+        <v>30000</v>
+      </c>
+      <c r="H60">
         <v>250</v>
       </c>
-      <c r="G60">
-        <v>15000</v>
-      </c>
-      <c r="H60">
-        <v>100</v>
-      </c>
       <c r="I60">
-        <v>0.04632835093647391</v>
+        <v>0.004851195785810773</v>
       </c>
       <c r="J60">
-        <v>60</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="K60">
         <v>5</v>
       </c>
       <c r="L60">
-        <v>1181</v>
+        <v>4372</v>
+      </c>
+      <c r="M60">
+        <v>2540</v>
       </c>
       <c r="N60">
-        <v>0.004474406242370606</v>
+        <v>0.002718129158020019</v>
+      </c>
+      <c r="O60">
+        <v>2540</v>
       </c>
       <c r="P60">
-        <v>3076615</v>
+        <v>6110417</v>
       </c>
       <c r="Q60">
-        <v>2.31949038174487</v>
+        <v>2.335602826496675</v>
       </c>
       <c r="R60">
-        <v>296.2</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -3988,46 +4000,52 @@
         <v>76</v>
       </c>
       <c r="C61" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D61" t="s">
         <v>89</v>
       </c>
       <c r="E61" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F61">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="G61">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="H61">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="I61">
-        <v>0.03870859083083283</v>
+        <v>0.03557633533726015</v>
       </c>
       <c r="J61">
-        <v>85.71428571428571</v>
+        <v>60</v>
       </c>
       <c r="K61">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L61">
-        <v>2005</v>
+        <v>598</v>
+      </c>
+      <c r="M61">
+        <v>4.86</v>
       </c>
       <c r="N61">
-        <v>0.008598289489746093</v>
+        <v>0.0003328371047973633</v>
+      </c>
+      <c r="O61">
+        <v>4.86</v>
       </c>
       <c r="P61">
-        <v>6179660</v>
+        <v>595044</v>
       </c>
       <c r="Q61">
-        <v>2.242359462132502</v>
+        <v>2.603330361105896</v>
       </c>
       <c r="R61">
-        <v>1403.52</v>
+        <v>4.86</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4038,46 +4056,46 @@
         <v>77</v>
       </c>
       <c r="C62" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D62" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E62" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F62">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G62">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="H62">
         <v>100</v>
       </c>
       <c r="I62">
-        <v>0.0810356200182734</v>
+        <v>0.04632835093647391</v>
       </c>
       <c r="J62">
         <v>60</v>
       </c>
       <c r="K62">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L62">
-        <v>213</v>
+        <v>1181</v>
       </c>
       <c r="N62">
-        <v>0.001567258834838867</v>
+        <v>0.004474406242370606</v>
       </c>
       <c r="P62">
-        <v>602667</v>
+        <v>3076615</v>
       </c>
       <c r="Q62">
-        <v>2.204282645717159</v>
+        <v>2.31949038174487</v>
       </c>
       <c r="R62">
-        <v>5.32</v>
+        <v>296.2</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4088,46 +4106,46 @@
         <v>78</v>
       </c>
       <c r="C63" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D63" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E63" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F63">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="G63">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="H63">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="I63">
-        <v>0.05271676858436181</v>
+        <v>0.03870859083083283</v>
       </c>
       <c r="J63">
-        <v>60</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="K63">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L63">
-        <v>826</v>
+        <v>2005</v>
       </c>
       <c r="N63">
-        <v>0.005406608581542969</v>
+        <v>0.008598289489746093</v>
       </c>
       <c r="P63">
-        <v>3116515</v>
+        <v>6179660</v>
       </c>
       <c r="Q63">
-        <v>2.797427996852169</v>
+        <v>2.242359462132502</v>
       </c>
       <c r="R63">
-        <v>497.72</v>
+        <v>1403.52</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4138,46 +4156,46 @@
         <v>79</v>
       </c>
       <c r="C64" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D64" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E64" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F64">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="G64">
-        <v>30000</v>
+        <v>3000</v>
       </c>
       <c r="H64">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="I64">
-        <v>0.04693074743815586</v>
+        <v>0.0810356200182734</v>
       </c>
       <c r="J64">
-        <v>85.71428571428571</v>
+        <v>60</v>
       </c>
       <c r="K64">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L64">
-        <v>2978</v>
+        <v>213</v>
       </c>
       <c r="N64">
-        <v>0.01146872043609619</v>
+        <v>0.001567258834838867</v>
       </c>
       <c r="P64">
-        <v>6236672</v>
+        <v>602667</v>
       </c>
       <c r="Q64">
-        <v>2.591263273352049</v>
+        <v>2.204282645717159</v>
       </c>
       <c r="R64">
-        <v>2066.73</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4188,45 +4206,145 @@
         <v>80</v>
       </c>
       <c r="C65" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D65" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E65" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F65">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G65">
-        <v>3000</v>
+        <v>15000</v>
       </c>
       <c r="H65">
         <v>500</v>
       </c>
       <c r="I65">
-        <v>0.06503310254216954</v>
+        <v>0.05271676858436181</v>
       </c>
       <c r="J65">
         <v>60</v>
       </c>
       <c r="K65">
+        <v>5</v>
+      </c>
+      <c r="L65">
+        <v>826</v>
+      </c>
+      <c r="N65">
+        <v>0.005406608581542969</v>
+      </c>
+      <c r="P65">
+        <v>3116515</v>
+      </c>
+      <c r="Q65">
+        <v>2.797427996852169</v>
+      </c>
+      <c r="R65">
+        <v>497.72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>81</v>
+      </c>
+      <c r="C66" t="s">
+        <v>88</v>
+      </c>
+      <c r="D66" t="s">
+        <v>91</v>
+      </c>
+      <c r="E66" t="s">
+        <v>92</v>
+      </c>
+      <c r="F66">
+        <v>350</v>
+      </c>
+      <c r="G66">
+        <v>30000</v>
+      </c>
+      <c r="H66">
+        <v>500</v>
+      </c>
+      <c r="I66">
+        <v>0.04693074743815586</v>
+      </c>
+      <c r="J66">
+        <v>85.71428571428571</v>
+      </c>
+      <c r="K66">
+        <v>6</v>
+      </c>
+      <c r="L66">
+        <v>2978</v>
+      </c>
+      <c r="N66">
+        <v>0.01146872043609619</v>
+      </c>
+      <c r="P66">
+        <v>6236672</v>
+      </c>
+      <c r="Q66">
+        <v>2.591263273352049</v>
+      </c>
+      <c r="R66">
+        <v>2066.73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" t="s">
+        <v>88</v>
+      </c>
+      <c r="D67" t="s">
+        <v>91</v>
+      </c>
+      <c r="E67" t="s">
+        <v>92</v>
+      </c>
+      <c r="F67">
+        <v>50</v>
+      </c>
+      <c r="G67">
+        <v>3000</v>
+      </c>
+      <c r="H67">
+        <v>500</v>
+      </c>
+      <c r="I67">
+        <v>0.06503310254216954</v>
+      </c>
+      <c r="J67">
+        <v>60</v>
+      </c>
+      <c r="K67">
         <v>7</v>
       </c>
-      <c r="L65">
+      <c r="L67">
         <v>376</v>
       </c>
-      <c r="N65">
+      <c r="N67">
         <v>0.002026233673095703</v>
       </c>
-      <c r="P65">
+      <c r="P67">
         <v>615075</v>
       </c>
-      <c r="Q65">
+      <c r="Q67">
         <v>2.632092859365192</v>
       </c>
-      <c r="R65">
+      <c r="R67">
         <v>9.73</v>
       </c>
     </row>
